--- a/medicine/Enfance/Joris_Chamblain/Joris_Chamblain.xlsx
+++ b/medicine/Enfance/Joris_Chamblain/Joris_Chamblain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joris Chamblain, né le 29 janvier 1984, est un scénariste et auteur de romans français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joris Chamblain, né le 29 janvier 1984, est un scénariste et auteur de romans français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joris Chamblain est un scénariste de bande dessinée et auteur de romans et albums jeunesse connu notamment pour avoir publié, en collaboration avec Aurélie Neyret au dessin, sa première série de bande dessinée, Les Carnets de Cerise qui rencontrera un grand succès[2],[3] et qui gagne notamment le Prix Jeunesse lors du Festival international de la bande dessinée d'Angoulême en 2014[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joris Chamblain est un scénariste de bande dessinée et auteur de romans et albums jeunesse connu notamment pour avoir publié, en collaboration avec Aurélie Neyret au dessin, sa première série de bande dessinée, Les Carnets de Cerise qui rencontrera un grand succès, et qui gagne notamment le Prix Jeunesse lors du Festival international de la bande dessinée d'Angoulême en 2014.
 Les albums de Joris Chamblain sont traduits dans plusieurs langues et distribués dans plusieurs pays.
 </t>
         </is>
@@ -543,22 +557,24 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série Les Carnets de Cerise, dessinatrice Aurélie Neyret
 Les Carnets de Cerise, tome 1 : Le Zoo pétrifié, Soleil Productions, 2012
-Les Carnets de Cerise, tome 2 : Le Livre d'Hector, Soleil Productions, 2013[5]
-Les Carnets de Cerise, tome 3 : Le Dernier des cinq trésors, Soleil Productions, 2014[6]
-Les Carnets de Cerise, tome 4 : La Déesse sans visage[7], Soleil Productions, 2016
-Les Carnets de Cerise, tome 5 : Des premières neiges aux perséides[8], Soleil Productions, 2017
+Les Carnets de Cerise, tome 2 : Le Livre d'Hector, Soleil Productions, 2013
+Les Carnets de Cerise, tome 3 : Le Dernier des cinq trésors, Soleil Productions, 2014
+Les Carnets de Cerise, tome 4 : La Déesse sans visage, Soleil Productions, 2016
+Les Carnets de Cerise, tome 5 : Des premières neiges aux perséides, Soleil Productions, 2017
 Les Carnets de Cerise et Valentin (tome hors-série), Soleil Productions, 2018
 Série Le Cœur en Braille, dessin Anne-Lise Nalin, d'après le roman de Pascal Ruter
-Le Coeur en braille, Editions Dargaud, 2023[9],[10]
+Le Coeur en braille, Editions Dargaud, 2023,
 Série Alyson Ford, dessins Olivier Frasier 
 Alyson Ford, tome 1 : Le temple du jaguar, Editions Vent d'Ouest, 2021
 Alyson Ford, tome 2 : Le dernier chaman, Editions Vent d'Ouest, 2023
 Série Les Souris du Louvre, dessins Sandrine Goalec
-Les Souris du Louvre, tome 1 : Milo et le monde caché[11], Editions Delcourt et Editions du Louvre, 2018
+Les Souris du Louvre, tome 1 : Milo et le monde caché, Editions Delcourt et Editions du Louvre, 2018
 Les Souris du Louvre, tome 2 : Le Damier de Babel, Editions Delcourt et Editions du Louvre, 2019
 Les Souris du Louvre, tome 3 : Le serment oublié, Editions Delcourt et Editions du Louvre, 2021
 Les Souris du Louvre, tome 4 : Le clan de la couronne, Editions Delcourt et Editions du Louvre, 2022
@@ -582,10 +598,10 @@
 Recueil : Sorcières Sorcières Recueil tomes 1 à 3, Editions Kennes, 2017
 Série Enola et les animaux extraordinaires, dessin Lucile Thibaudier
 Enola et les animaux extraordinaires, tome 1 : La Gargouille qui partait en vadrouille, Éditions de la Gouttière, 2015
-Enola et les animaux extraordinaires, tome 2 : La Licorne qui dépassait les bornes, Éditions de la Gouttière, 2016[12]
+Enola et les animaux extraordinaires, tome 2 : La Licorne qui dépassait les bornes, Éditions de la Gouttière, 2016
 Enola et les animaux extraordinaires, tome 3 : Le Kraken qui avait mauvaise haleine, Éditions de la Gouttière, 2017
-Enola et les animaux extraordinaires, tome 4 : Le yeti qui avait perdu l'appétit, Éditions de la Gouttière, 2018[13]
-Enola et les animaux extraordinaires, tome 5 : Le loup garou qui faisait d'une pierre deux coups, Éditions de la Gouttière, 2019[14]
+Enola et les animaux extraordinaires, tome 4 : Le yeti qui avait perdu l'appétit, Éditions de la Gouttière, 2018
+Enola et les animaux extraordinaires, tome 5 : Le loup garou qui faisait d'une pierre deux coups, Éditions de la Gouttière, 2019
 Enola et les animaux extraordinaires, tome 6 : Le griffon qui avait une araignée au plafond, Éditions de la Gouttière, 2019
 Enola et les animaux extraordinaires, tome 7 : La sirène qui avait les yeux de Chimène, Éditions de la Gouttière, 2023
 Enola et les animaux extraordinaires, Receuil tomes 1 à 3, Éditions de la Gouttière, 2019
@@ -595,7 +611,7 @@
 Nanny Mandy, tome 2 : Antoine aime tout ce qui brille, Kennes, 2016
 Nanny Mandy, tome 3 : Dans le cœur de Célia, Kennes, 2020
 Série Yakari, dessin Derib ; d'après Job
-Yakari, tome 39 : Le Jour du silence, Le Lombard, 2016[15]
+Yakari, tome 39 : Le Jour du silence, Le Lombard, 2016
 Yakari, tome 40 : L'esprit des chevaux, Le Lombard, 2019
 Série Lili Crochette et Monsieur Mouche, avec Olivier Supiot
 Lili Crochette et Monsieur Mouche, tome 1 : Le Fléau du bord de l'eau, Éditions de la Gouttière, 2017
